--- a/_site/data/vaccine_list/Status_of_COVID-19_Vaccines_within_WHO_EUL_PQ_evaluation_process.xlsx
+++ b/_site/data/vaccine_list/Status_of_COVID-19_Vaccines_within_WHO_EUL_PQ_evaluation_process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dantes/web_local/SARS-CoV-2-VOC.github.io/vaccine_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawless/web/SARS-CoV-2-VOC.github.io/data/vaccine_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D9E83-F427-B047-970B-D1D4877BDBF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C69EA4-B69E-C740-BCCC-0C1B2F299467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1320" windowWidth="20680" windowHeight="12800" xr2:uid="{0103D78F-211F-DD41-B0D7-2AFBAE81FDA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="93">
   <si>
     <t xml:space="preserve">Manufacturer / WHO EUL holder </t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>:---</t>
+  </si>
+  <si>
+    <t>Vaccine_sequence</t>
+  </si>
+  <si>
+    <t>Not published</t>
+  </si>
+  <si>
+    <t>AZD2816</t>
   </si>
 </sst>
 </file>
@@ -372,13 +381,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -433,13 +442,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -494,13 +503,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -555,13 +564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -616,13 +625,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -677,13 +686,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -738,13 +747,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -799,13 +808,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -860,13 +869,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
@@ -1219,1283 +1228,1311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945C12DC-386F-C84A-96D2-7C92CFF5DBD6}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="C1:W18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" customWidth="1"/>
-    <col min="23" max="23" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" customWidth="1"/>
+    <col min="22" max="22" width="3.33203125" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>81</v>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="2">
         <v>44196</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4">
         <v>2.1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" s="3">
+      <c r="V4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="3">
         <v>44302</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" s="3">
+      <c r="V5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="3">
         <v>44242</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V6" s="3">
+      <c r="V6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="3">
         <v>44242</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" s="3">
+      <c r="V7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="3">
         <v>44267</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="V8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" s="3">
         <v>44316</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="3">
         <v>44323</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="3">
         <v>44348</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>81</v>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4">
         <v>12</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="4">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="4">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4">
         <v>15</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="L18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="R18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="V18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D19" s="4"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2509,6 +2546,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
